--- a/results/testfile3.xlsx
+++ b/results/testfile3.xlsx
@@ -2190,7 +2190,7 @@
     <col min="1" max="1" width="26.993" bestFit="true" customWidth="true" style="3"/>
     <col min="2" max="2" width="17.567" bestFit="true" customWidth="true" style="3"/>
     <col min="3" max="3" width="42.418" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="20.995" bestFit="true" customWidth="true" style="3"/>
+    <col min="4" max="4" width="13.997" bestFit="true" customWidth="true" style="3"/>
     <col min="5" max="5" width="47.131" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="18.71" bestFit="true" customWidth="true" style="3"/>
     <col min="7" max="7" width="18.71" bestFit="true" customWidth="true" style="3"/>
@@ -15873,7 +15873,7 @@
         <v>600</v>
       </c>
       <c r="D338" s="3">
-        <v>253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:13">
@@ -15888,9 +15888,9 @@
       <c r="A340" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="D340" s="3">
+      <c r="D340" s="3" t="e">
         <f>(100-((D339/D338)*100))</f>
-        <v>66.403162055336</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
